--- a/Excel_Files/Result.xlsx
+++ b/Excel_Files/Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>TestID</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t xml:space="preserve">verify user promt to login while check out </t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Error in selecting Brand</t>
+  </si>
+  <si>
+    <t>Error in selecting user Rating</t>
+  </si>
+  <si>
+    <t>Error in adding product to cart</t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -441,6 +453,300 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel_Files/Result.xlsx
+++ b/Excel_Files/Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
   <si>
     <t>TestID</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>Error in adding product to cart</t>
+  </si>
+  <si>
+    <t>Search For Pendrive with filters</t>
+  </si>
+  <si>
+    <t>Error in search for Pen Drive</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -747,6 +756,262 @@
         <v>7</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel_Files/Result.xlsx
+++ b/Excel_Files/Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="19">
   <si>
     <t>TestID</t>
   </si>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1012,6 +1012,42 @@
       </c>
       <c r="D45"/>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel_Files/Result.xlsx
+++ b/Excel_Files/Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="19">
   <si>
     <t>TestID</t>
   </si>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1048,6 +1048,42 @@
       </c>
       <c r="D48"/>
     </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel_Files/Result.xlsx
+++ b/Excel_Files/Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="19">
   <si>
     <t>TestID</t>
   </si>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1084,6 +1084,42 @@
       </c>
       <c r="D51"/>
     </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
